--- a/Diagnosis/cstr_model/all_results.xlsx
+++ b/Diagnosis/cstr_model/all_results.xlsx
@@ -487,29 +487,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.855686664581299</v>
+        <v>0.0003142356872558594</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001854431175161153</v>
+        <v>0.00128173828125</v>
       </c>
       <c r="D2" t="n">
-        <v>3.031496286392212</v>
+        <v>0.007080078125</v>
       </c>
       <c r="E2" t="n">
-        <v>15.2866792678833</v>
+        <v>0.08571624755859375</v>
       </c>
       <c r="F2" t="n">
-        <v>272.9075012207031</v>
+        <v>0.00152587890625</v>
       </c>
       <c r="G2" t="n">
-        <v>17.04104995727539</v>
+        <v>0.010223388671875</v>
       </c>
       <c r="H2" t="n">
-        <v>37.61849594116211</v>
+        <v>0.000245511531829834</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -525,29 +525,29 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3446081001311541</v>
+        <v>7.665157318115234e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>2.479374029462633e-05</v>
+        <v>0.000457763671875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4063443318009377</v>
+        <v>0.00177001953125</v>
       </c>
       <c r="E3" t="n">
-        <v>2.344804048538208</v>
+        <v>0.0175018310546875</v>
       </c>
       <c r="F3" t="n">
-        <v>5.720115602016449</v>
+        <v>0.0008544921875</v>
       </c>
       <c r="G3" t="n">
-        <v>2.203956693410873</v>
+        <v>0.003692626953125</v>
       </c>
       <c r="H3" t="n">
-        <v>3.637167602777481</v>
+        <v>2.801418304443359e-05</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -563,29 +563,29 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2878246307373047</v>
+        <v>6.637325714109465e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>1.861748205556069e-05</v>
+        <v>0.0003049325314350426</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3021588623523712</v>
+        <v>0.001055246917530894</v>
       </c>
       <c r="E4" t="n">
-        <v>1.873661160469055</v>
+        <v>0.01152105815708637</v>
       </c>
       <c r="F4" t="n">
-        <v>7.688367366790771</v>
+        <v>0.0004216303932480514</v>
       </c>
       <c r="G4" t="n">
-        <v>1.531944632530212</v>
+        <v>0.001833456917665899</v>
       </c>
       <c r="H4" t="n">
-        <v>2.973121643066406</v>
+        <v>2.595128353277687e-05</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -601,29 +601,29 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.16728375852108</v>
+        <v>6.833174026610322e-09</v>
       </c>
       <c r="C5" t="n">
-        <v>7.497626963726134e-10</v>
+        <v>1.408432979133067e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1918813288211823</v>
+        <v>1.773584813236084e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>6.65711784362793</v>
+        <v>0.0002189535589423031</v>
       </c>
       <c r="F5" t="n">
-        <v>283.419921875</v>
+        <v>2.049450387175966e-07</v>
       </c>
       <c r="G5" t="n">
-        <v>4.46290397644043</v>
+        <v>4.61148374597542e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>20.43578910827637</v>
+        <v>1.492371226596845e-09</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,29 +639,29 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.437711715698242</v>
+        <v>0.6311849355697632</v>
       </c>
       <c r="C6" t="n">
-        <v>1.286234736442566</v>
+        <v>0.9233296513557434</v>
       </c>
       <c r="D6" t="n">
-        <v>1.359742403030396</v>
+        <v>0.8000504374504089</v>
       </c>
       <c r="E6" t="n">
-        <v>1.332393527030945</v>
+        <v>0.7807741165161133</v>
       </c>
       <c r="F6" t="n">
-        <v>2.459609985351562</v>
+        <v>0.8128079771995544</v>
       </c>
       <c r="G6" t="n">
-        <v>1.253961324691772</v>
+        <v>0.6566503047943115</v>
       </c>
       <c r="H6" t="n">
-        <v>1.498523116111755</v>
+        <v>0.6656143069267273</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Ti</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -677,29 +677,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.397907495498657</v>
+        <v>0.7326955199241638</v>
       </c>
       <c r="C7" t="n">
-        <v>2.476943731307983</v>
+        <v>1.077998876571655</v>
       </c>
       <c r="D7" t="n">
-        <v>2.491791486740112</v>
+        <v>1.18668520450592</v>
       </c>
       <c r="E7" t="n">
-        <v>2.061416625976562</v>
+        <v>1.156205296516418</v>
       </c>
       <c r="F7" t="n">
-        <v>7.390908241271973</v>
+        <v>0.2493955045938492</v>
       </c>
       <c r="G7" t="n">
-        <v>2.215436458587646</v>
+        <v>0.2970982193946838</v>
       </c>
       <c r="H7" t="n">
-        <v>3.159356594085693</v>
+        <v>1.865312576293945</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -715,29 +715,29 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.075261116027832</v>
+        <v>-0.4906136691570282</v>
       </c>
       <c r="C8" t="n">
-        <v>7.433571338653564</v>
+        <v>-0.0838678777217865</v>
       </c>
       <c r="D8" t="n">
-        <v>7.358342170715332</v>
+        <v>1.314852952957153</v>
       </c>
       <c r="E8" t="n">
-        <v>4.474483013153076</v>
+        <v>1.636393308639526</v>
       </c>
       <c r="F8" t="n">
-        <v>81.64096832275391</v>
+        <v>-1.41913902759552</v>
       </c>
       <c r="G8" t="n">
-        <v>6.601853847503662</v>
+        <v>-0.5776143670082092</v>
       </c>
       <c r="H8" t="n">
-        <v>13.72318744659424</v>
+        <v>4.719558238983154</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -753,29 +753,29 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.003791634226217866</v>
+        <v>3.218650817871094e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>6.95138680839591e-07</v>
+        <v>6.103515625e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005741872824728489</v>
+        <v>0.000274658203125</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03065277636051178</v>
+        <v>0.0023040771484375</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08444160223007202</v>
+        <v>3.0517578125e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03932416811585426</v>
+        <v>0.00042724609375</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04134659469127655</v>
+        <v>2.09808349609375e-05</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -791,29 +791,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02322983555495739</v>
+        <v>7.903575897216797e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>3.371340653757215e-06</v>
+        <v>0.0001220703125</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03706987947225571</v>
+        <v>0.000640869140625</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2001011371612549</v>
+        <v>0.0085601806640625</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5068650841712952</v>
+        <v>9.1552734375e-05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2189833223819733</v>
+        <v>0.0010986328125</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2825509011745453</v>
+        <v>3.635883331298828e-05</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -829,29 +829,29 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1065745800733566</v>
+        <v>0.0001056194305419922</v>
       </c>
       <c r="C11" t="n">
-        <v>1.217865064973012e-05</v>
+        <v>0.000244140625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1575872898101807</v>
+        <v>0.00128173828125</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8882579207420349</v>
+        <v>0.0157623291015625</v>
       </c>
       <c r="F11" t="n">
-        <v>2.124518871307373</v>
+        <v>0.000396728515625</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8835472464561462</v>
+        <v>0.003448486328125</v>
       </c>
       <c r="H11" t="n">
-        <v>1.263771772384644</v>
+        <v>5.042552947998047e-05</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,29 +867,29 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3678379356861115</v>
+        <v>0.0001556873321533203</v>
       </c>
       <c r="C12" t="n">
-        <v>2.816508094838355e-05</v>
+        <v>0.000579833984375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4434142112731934</v>
+        <v>0.002410888671875</v>
       </c>
       <c r="E12" t="n">
-        <v>2.544905185699463</v>
+        <v>0.02606201171875</v>
       </c>
       <c r="F12" t="n">
-        <v>6.226980686187744</v>
+        <v>0.000946044921875</v>
       </c>
       <c r="G12" t="n">
-        <v>2.422940015792847</v>
+        <v>0.004791259765625</v>
       </c>
       <c r="H12" t="n">
-        <v>3.919718503952026</v>
+        <v>6.437301635742188e-05</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -905,29 +905,29 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8673833012580872</v>
+        <v>0.0002778768539428711</v>
       </c>
       <c r="C13" t="n">
-        <v>5.17122280143667e-05</v>
+        <v>0.001068115234375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7867031693458557</v>
+        <v>0.0035400390625</v>
       </c>
       <c r="E13" t="n">
-        <v>5.700214385986328</v>
+        <v>0.0405426025390625</v>
       </c>
       <c r="F13" t="n">
-        <v>14.45614719390869</v>
+        <v>0.001129150390625</v>
       </c>
       <c r="G13" t="n">
-        <v>4.559048652648926</v>
+        <v>0.005767822265625</v>
       </c>
       <c r="H13" t="n">
-        <v>7.968973159790039</v>
+        <v>0.0001039505004882812</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -943,29 +943,29 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.186915874481201</v>
+        <v>0.0003082752227783203</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0004112616297788918</v>
+        <v>0.01904296875</v>
       </c>
       <c r="D14" t="n">
-        <v>640.013671875</v>
+        <v>0.013397216796875</v>
       </c>
       <c r="E14" t="n">
-        <v>67.24620819091797</v>
+        <v>0.12396240234375</v>
       </c>
       <c r="F14" t="n">
-        <v>209.7129211425781</v>
+        <v>0.001068115234375</v>
       </c>
       <c r="G14" t="n">
-        <v>13.15810966491699</v>
+        <v>0.01739501953125</v>
       </c>
       <c r="H14" t="n">
-        <v>43.10927581787109</v>
+        <v>1.037865877151489e-05</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -981,29 +981,29 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3062114231288433</v>
+        <v>8.672475814819336e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>2.388781558693154e-05</v>
+        <v>0.008026123046875</v>
       </c>
       <c r="D15" t="n">
-        <v>159.7773551940918</v>
+        <v>0.001617431640625</v>
       </c>
       <c r="E15" t="n">
-        <v>2.057146340608597</v>
+        <v>0.014862060546875</v>
       </c>
       <c r="F15" t="n">
-        <v>4.17912095785141</v>
+        <v>0.000518798828125</v>
       </c>
       <c r="G15" t="n">
-        <v>1.306167423725128</v>
+        <v>0.00323486328125</v>
       </c>
       <c r="H15" t="n">
-        <v>3.092118725180626</v>
+        <v>1.773238182067871e-06</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1019,29 +1019,29 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3095367252826691</v>
+        <v>6.465792830567807e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>5.651486571878195e-05</v>
+        <v>0.0045536900870502</v>
       </c>
       <c r="D16" t="n">
-        <v>93.61800384521484</v>
+        <v>0.001000189804472029</v>
       </c>
       <c r="E16" t="n">
-        <v>1.819334983825684</v>
+        <v>0.01853020675480366</v>
       </c>
       <c r="F16" t="n">
-        <v>6.73829984664917</v>
+        <v>0.0002857612853404135</v>
       </c>
       <c r="G16" t="n">
-        <v>1.000937461853027</v>
+        <v>0.001692606369033456</v>
       </c>
       <c r="H16" t="n">
-        <v>2.705246448516846</v>
+        <v>1.279326284020499e-06</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1057,29 +1057,29 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2436386793851852</v>
+        <v>6.315055145478254e-09</v>
       </c>
       <c r="C17" t="n">
-        <v>7.754224817801969e-09</v>
+        <v>2.870162097678985e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>13247.9755859375</v>
+        <v>1.766216769283346e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>13.01315116882324</v>
+        <v>0.000654660863801837</v>
       </c>
       <c r="F17" t="n">
-        <v>224.3556823730469</v>
+        <v>9.821638258245002e-08</v>
       </c>
       <c r="G17" t="n">
-        <v>2.195223808288574</v>
+        <v>4.2545093492663e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>18.92097663879395</v>
+        <v>3.112308154251675e-12</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1095,29 +1095,29 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.636680960655212</v>
+        <v>0.6126776337623596</v>
       </c>
       <c r="C18" t="n">
-        <v>2.08893084526062</v>
+        <v>0.8626814484596252</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8765490651130676</v>
+        <v>0.8561537265777588</v>
       </c>
       <c r="E18" t="n">
-        <v>1.975366711616516</v>
+        <v>1.011292457580566</v>
       </c>
       <c r="F18" t="n">
-        <v>2.668868064880371</v>
+        <v>0.8386713862419128</v>
       </c>
       <c r="G18" t="n">
-        <v>1.381507873535156</v>
+        <v>0.642553448677063</v>
       </c>
       <c r="H18" t="n">
-        <v>1.658210515975952</v>
+        <v>0.7486540675163269</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1133,29 +1133,29 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.428217887878418</v>
+        <v>1.060153126716614</v>
       </c>
       <c r="C19" t="n">
-        <v>2.416675806045532</v>
+        <v>0.7823119759559631</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9400497674942017</v>
+        <v>2.01212215423584</v>
       </c>
       <c r="E19" t="n">
-        <v>8.812495231628418</v>
+        <v>1.746190309524536</v>
       </c>
       <c r="F19" t="n">
-        <v>7.32087516784668</v>
+        <v>0.4744056463241577</v>
       </c>
       <c r="G19" t="n">
-        <v>2.832053661346436</v>
+        <v>0.7518768310546875</v>
       </c>
       <c r="H19" t="n">
-        <v>3.965904235839844</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Qc</t>
+          <t>T</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1171,29 +1171,29 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15.70251846313477</v>
+        <v>-0.06193554773926735</v>
       </c>
       <c r="C20" t="n">
-        <v>4.371070861816406</v>
+        <v>-0.5002230405807495</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3022878170013428</v>
+        <v>8.630072593688965</v>
       </c>
       <c r="E20" t="n">
-        <v>127.6527328491211</v>
+        <v>2.111962080001831</v>
       </c>
       <c r="F20" t="n">
-        <v>73.43537139892578</v>
+        <v>-1.161868453025818</v>
       </c>
       <c r="G20" t="n">
-        <v>11.62706279754639</v>
+        <v>2.833327293395996</v>
       </c>
       <c r="H20" t="n">
-        <v>23.53777122497559</v>
+        <v>3.417171478271484</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Qc</t>
+          <t>T</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1209,29 +1209,29 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.004572260193526745</v>
+        <v>6.431341171264648e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>2.141565005331358e-07</v>
+        <v>0.000518798828125</v>
       </c>
       <c r="D21" t="n">
-        <v>6.246490955352783</v>
+        <v>0.000244140625</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02332965284585953</v>
+        <v>0.0040435791015625</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05071705207228661</v>
+        <v>3.0517578125e-05</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01750969886779785</v>
+        <v>0.000518798828125</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03093124181032181</v>
+        <v>4.693865776062012e-07</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1247,29 +1247,29 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02681954577565193</v>
+        <v>8.487701416015625e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>1.253000846190844e-06</v>
+        <v>0.0015869140625</v>
       </c>
       <c r="D22" t="n">
-        <v>34.81100845336914</v>
+        <v>0.0006103515625</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1426002681255341</v>
+        <v>0.01031494140625</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2843218445777893</v>
+        <v>0.0001220703125</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09689480066299438</v>
+        <v>0.0013427734375</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2036662250757217</v>
+        <v>1.259148120880127e-06</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1285,29 +1285,29 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.118620753288269</v>
+        <v>9.560585021972656e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>5.900661562918685e-06</v>
+        <v>0.004241943359375</v>
       </c>
       <c r="D23" t="n">
-        <v>104.832405090332</v>
+        <v>0.001190185546875</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7644505500793457</v>
+        <v>0.01702880859375</v>
       </c>
       <c r="F23" t="n">
-        <v>1.26617431640625</v>
+        <v>0.000213623046875</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5339413285255432</v>
+        <v>0.00347900390625</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9933582544326782</v>
+        <v>1.944601535797119e-06</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1323,29 +1323,29 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3330309689044952</v>
+        <v>0.0001716017723083496</v>
       </c>
       <c r="C24" t="n">
-        <v>2.514081643312238e-05</v>
+        <v>0.009613037109375</v>
       </c>
       <c r="D24" t="n">
-        <v>194.5883636474609</v>
+        <v>0.002227783203125</v>
       </c>
       <c r="E24" t="n">
-        <v>2.199746608734131</v>
+        <v>0.025177001953125</v>
       </c>
       <c r="F24" t="n">
-        <v>4.463442802429199</v>
+        <v>0.000640869140625</v>
       </c>
       <c r="G24" t="n">
-        <v>1.403062224388123</v>
+        <v>0.00457763671875</v>
       </c>
       <c r="H24" t="n">
-        <v>3.295784950256348</v>
+        <v>3.032386302947998e-06</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1361,29 +1361,29 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8609877228736877</v>
+        <v>0.0002756714820861816</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0002186841156799346</v>
+        <v>0.01556396484375</v>
       </c>
       <c r="D25" t="n">
-        <v>308.7716369628906</v>
+        <v>0.0032958984375</v>
       </c>
       <c r="E25" t="n">
-        <v>4.471763610839844</v>
+        <v>0.072174072265625</v>
       </c>
       <c r="F25" t="n">
-        <v>13.12547397613525</v>
+        <v>0.000823974609375</v>
       </c>
       <c r="G25" t="n">
-        <v>2.793329477310181</v>
+        <v>0.005523681640625</v>
       </c>
       <c r="H25" t="n">
-        <v>7.092514514923096</v>
+        <v>4.783272743225098e-06</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1399,29 +1399,29 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.656116962432861</v>
+        <v>0.0001369714736938477</v>
       </c>
       <c r="C26" t="n">
-        <v>2.510076592443511e-05</v>
+        <v>0.005950927734375</v>
       </c>
       <c r="D26" t="n">
-        <v>19.93019676208496</v>
+        <v>0.014129638671875</v>
       </c>
       <c r="E26" t="n">
-        <v>91.22977447509766</v>
+        <v>0.18341064453125</v>
       </c>
       <c r="F26" t="n">
-        <v>425.4277038574219</v>
+        <v>0.002197265625</v>
       </c>
       <c r="G26" t="n">
-        <v>113.0110931396484</v>
+        <v>0.01971435546875</v>
       </c>
       <c r="H26" t="n">
-        <v>93.43330383300781</v>
+        <v>1.856684684753418e-05</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1437,29 +1437,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2118112798780203</v>
+        <v>6.011128425598145e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>3.901965953900799e-06</v>
+        <v>0.00395965576171875</v>
       </c>
       <c r="D27" t="n">
-        <v>3.480790738016367</v>
+        <v>0.00231170654296875</v>
       </c>
       <c r="E27" t="n">
-        <v>3.015549544245005</v>
+        <v>0.00958251953125</v>
       </c>
       <c r="F27" t="n">
-        <v>8.134848333895206</v>
+        <v>0.00075531005859375</v>
       </c>
       <c r="G27" t="n">
-        <v>6.463854178786278</v>
+        <v>0.00452423095703125</v>
       </c>
       <c r="H27" t="n">
-        <v>6.694406911730766</v>
+        <v>2.991408109664917e-06</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1475,29 +1475,29 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2779437005519867</v>
+        <v>3.319978713989258e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>3.139305135846371e-06</v>
+        <v>0.001842008205130696</v>
       </c>
       <c r="D28" t="n">
-        <v>2.457271099090576</v>
+        <v>0.00130768062081188</v>
       </c>
       <c r="E28" t="n">
-        <v>3.893542289733887</v>
+        <v>0.03095870651304722</v>
       </c>
       <c r="F28" t="n">
-        <v>15.60603809356689</v>
+        <v>0.0005714036524295807</v>
       </c>
       <c r="G28" t="n">
-        <v>4.99558162689209</v>
+        <v>0.002413463545963168</v>
       </c>
       <c r="H28" t="n">
-        <v>4.695885181427002</v>
+        <v>2.095723857564735e-06</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1513,29 +1513,29 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2434216141700745</v>
+        <v>1.687973205655169e-09</v>
       </c>
       <c r="C29" t="n">
-        <v>1.967365680088928e-11</v>
+        <v>4.636222911358345e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>11.06338405609131</v>
+        <v>3.093032319156919e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>64.38039398193359</v>
+        <v>0.001565805054269731</v>
       </c>
       <c r="F29" t="n">
-        <v>1311.053588867188</v>
+        <v>4.647570222005015e-07</v>
       </c>
       <c r="G29" t="n">
-        <v>83.76537322998047</v>
+        <v>8.798672752163839e-06</v>
       </c>
       <c r="H29" t="n">
-        <v>71.32080078125</v>
+        <v>8.103323567709708e-12</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1551,29 +1551,29 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.054208278656006</v>
+        <v>0.9384638071060181</v>
       </c>
       <c r="C30" t="n">
-        <v>1.278566718101501</v>
+        <v>1.065626502037048</v>
       </c>
       <c r="D30" t="n">
-        <v>1.341947555541992</v>
+        <v>0.8268705010414124</v>
       </c>
       <c r="E30" t="n">
-        <v>2.370818138122559</v>
+        <v>0.8685805201530457</v>
       </c>
       <c r="F30" t="n">
-        <v>3.047303199768066</v>
+        <v>0.3725260496139526</v>
       </c>
       <c r="G30" t="n">
-        <v>1.643895626068115</v>
+        <v>0.6462230682373047</v>
       </c>
       <c r="H30" t="n">
-        <v>1.542489051818848</v>
+        <v>0.7869196534156799</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Ti</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1589,29 +1589,29 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.66977071762085</v>
+        <v>0.9425950646400452</v>
       </c>
       <c r="C31" t="n">
-        <v>2.050530672073364</v>
+        <v>0.947502076625824</v>
       </c>
       <c r="D31" t="n">
-        <v>2.118757009506226</v>
+        <v>2.17564582824707</v>
       </c>
       <c r="E31" t="n">
-        <v>7.088629245758057</v>
+        <v>1.517801284790039</v>
       </c>
       <c r="F31" t="n">
-        <v>7.642833709716797</v>
+        <v>-0.9549163579940796</v>
       </c>
       <c r="G31" t="n">
-        <v>6.869353294372559</v>
+        <v>0.7803980708122253</v>
       </c>
       <c r="H31" t="n">
-        <v>5.648392200469971</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>T</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1627,29 +1627,29 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>30.59598731994629</v>
+        <v>-0.2893552184104919</v>
       </c>
       <c r="C32" t="n">
-        <v>4.470284938812256</v>
+        <v>-0.8653630018234253</v>
       </c>
       <c r="D32" t="n">
-        <v>5.446310520172119</v>
+        <v>9.804498672485352</v>
       </c>
       <c r="E32" t="n">
-        <v>66.28309631347656</v>
+        <v>1.095674276351929</v>
       </c>
       <c r="F32" t="n">
-        <v>73.65902709960938</v>
+        <v>-0.6254952549934387</v>
       </c>
       <c r="G32" t="n">
-        <v>72.62842559814453</v>
+        <v>1.870056748390198</v>
       </c>
       <c r="H32" t="n">
-        <v>48.43675994873047</v>
+        <v>3.585640668869019</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>T</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1665,29 +1665,29 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.002821208792738616</v>
+        <v>4.410743713378906e-06</v>
       </c>
       <c r="C33" t="n">
-        <v>3.067857079486203e-08</v>
+        <v>0.000213623046875</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04632287845015526</v>
+        <v>0.000335693359375</v>
       </c>
       <c r="E33" t="n">
-        <v>0.03238089755177498</v>
+        <v>0.0148162841796875</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06363813020288944</v>
+        <v>0.0005645751953125</v>
       </c>
       <c r="G33" t="n">
-        <v>0.142107829451561</v>
+        <v>0.0007171630859375</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1660759001970291</v>
+        <v>5.848705768585205e-07</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1703,29 +1703,29 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01186729781329632</v>
+        <v>9.73045825958252e-06</v>
       </c>
       <c r="C34" t="n">
-        <v>3.525860279296467e-07</v>
+        <v>0.00042724609375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2360498271882534</v>
+        <v>0.000885009765625</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2029369436204433</v>
+        <v>0.02559280395507812</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2978461012244225</v>
+        <v>0.00150299072265625</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6835876852273941</v>
+        <v>0.0021209716796875</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6620792895555496</v>
+        <v>1.780688762664795e-06</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Tc</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1741,29 +1741,29 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.06551938876509666</v>
+        <v>4.38690185546875e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>2.110492005158449e-06</v>
+        <v>0.000885009765625</v>
       </c>
       <c r="D35" t="n">
-        <v>1.077502310276031</v>
+        <v>0.0017242431640625</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9151324033737183</v>
+        <v>0.030181884765625</v>
       </c>
       <c r="F35" t="n">
-        <v>1.357315540313721</v>
+        <v>0.002166748046875</v>
       </c>
       <c r="G35" t="n">
-        <v>2.927490472793579</v>
+        <v>0.0047607421875</v>
       </c>
       <c r="H35" t="n">
-        <v>3.543577313423157</v>
+        <v>2.849847078323364e-06</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1779,29 +1779,29 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2236785776913166</v>
+        <v>6.984174251556396e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>4.254551981830446e-06</v>
+        <v>0.00438690185546875</v>
       </c>
       <c r="D36" t="n">
-        <v>3.71684056520462</v>
+        <v>0.00319671630859375</v>
       </c>
       <c r="E36" t="n">
-        <v>3.218486487865448</v>
+        <v>0.03517532348632812</v>
       </c>
       <c r="F36" t="n">
-        <v>8.432694435119629</v>
+        <v>0.00225830078125</v>
       </c>
       <c r="G36" t="n">
-        <v>7.147441864013672</v>
+        <v>0.00664520263671875</v>
       </c>
       <c r="H36" t="n">
-        <v>7.356486201286316</v>
+        <v>4.772096872329712e-06</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1817,29 +1817,29 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.6511874198913574</v>
+        <v>0.000123143196105957</v>
       </c>
       <c r="C37" t="n">
-        <v>9.760297416505637e-06</v>
+        <v>0.005645751953125</v>
       </c>
       <c r="D37" t="n">
-        <v>7.175787925720215</v>
+        <v>0.00421142578125</v>
       </c>
       <c r="E37" t="n">
-        <v>8.485361099243164</v>
+        <v>0.1191558837890625</v>
       </c>
       <c r="F37" t="n">
-        <v>28.7161808013916</v>
+        <v>0.0024871826171875</v>
       </c>
       <c r="G37" t="n">
-        <v>13.94932270050049</v>
+        <v>0.0073699951171875</v>
       </c>
       <c r="H37" t="n">
-        <v>11.42403125762939</v>
+        <v>6.973743438720703e-06</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1855,29 +1855,29 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4.656833171844482</v>
+        <v>0.0004617571830749512</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0007138525252230465</v>
+        <v>0.00140380859375</v>
       </c>
       <c r="D38" t="n">
-        <v>3.621580362319946</v>
+        <v>0.0216064453125</v>
       </c>
       <c r="E38" t="n">
-        <v>111.7218246459961</v>
+        <v>0.1327438354492188</v>
       </c>
       <c r="F38" t="n">
-        <v>1274.303466796875</v>
+        <v>0.001251220703125</v>
       </c>
       <c r="G38" t="n">
-        <v>12.28333187103271</v>
+        <v>0.031219482421875</v>
       </c>
       <c r="H38" t="n">
-        <v>75.31472015380859</v>
+        <v>5.854666233062744e-05</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1893,29 +1893,29 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3398812282830477</v>
+        <v>5.668401718139648e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>2.448052737236139e-05</v>
+        <v>0.000518798828125</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6103482246398926</v>
+        <v>0.001678466796875</v>
       </c>
       <c r="E39" t="n">
-        <v>2.442335352301598</v>
+        <v>0.03485107421875</v>
       </c>
       <c r="F39" t="n">
-        <v>29.76011872291565</v>
+        <v>0.000579833984375</v>
       </c>
       <c r="G39" t="n">
-        <v>2.029747262597084</v>
+        <v>0.00335693359375</v>
       </c>
       <c r="H39" t="n">
-        <v>2.379026234149933</v>
+        <v>1.788139343261719e-06</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1931,29 +1931,29 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3025985956192017</v>
+        <v>6.732907786499709e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>4.78476649732329e-05</v>
+        <v>0.000295113044558093</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4882826507091522</v>
+        <v>0.001021740958094597</v>
       </c>
       <c r="E40" t="n">
-        <v>2.016016960144043</v>
+        <v>0.02244083769619465</v>
       </c>
       <c r="F40" t="n">
-        <v>52.82892990112305</v>
+        <v>0.0003372808860149235</v>
       </c>
       <c r="G40" t="n">
-        <v>1.54466986656189</v>
+        <v>0.001706545357592404</v>
       </c>
       <c r="H40" t="n">
-        <v>2.264915704727173</v>
+        <v>1.348844307358377e-06</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1969,29 +1969,29 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2194196730852127</v>
+        <v>1.016832218425634e-08</v>
       </c>
       <c r="C41" t="n">
-        <v>1.428930840319254e-08</v>
+        <v>1.348716551774487e-07</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4318186342716217</v>
+        <v>2.119973714798107e-06</v>
       </c>
       <c r="E41" t="n">
-        <v>25.38727569580078</v>
+        <v>0.0008001203532330692</v>
       </c>
       <c r="F41" t="n">
-        <v>15100.7373046875</v>
+        <v>1.429137199693287e-07</v>
       </c>
       <c r="G41" t="n">
-        <v>4.347362041473389</v>
+        <v>4.837868800677825e-06</v>
       </c>
       <c r="H41" t="n">
-        <v>18.62410926818848</v>
+        <v>6.219416908564979e-12</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2007,29 +2007,29 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.581906318664551</v>
+        <v>0.9196262955665588</v>
       </c>
       <c r="C42" t="n">
-        <v>3.160148859024048</v>
+        <v>0.879594087600708</v>
       </c>
       <c r="D42" t="n">
-        <v>1.237735509872437</v>
+        <v>0.9306896924972534</v>
       </c>
       <c r="E42" t="n">
-        <v>2.436305284500122</v>
+        <v>0.8158570528030396</v>
       </c>
       <c r="F42" t="n">
-        <v>2.836137294769287</v>
+        <v>0.7488362789154053</v>
       </c>
       <c r="G42" t="n">
-        <v>1.30069625377655</v>
+        <v>0.6926506161689758</v>
       </c>
       <c r="H42" t="n">
-        <v>1.918912291526794</v>
+        <v>0.9866372346878052</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Ti</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2045,29 +2045,29 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.305673360824585</v>
+        <v>2.211676359176636</v>
       </c>
       <c r="C43" t="n">
-        <v>4.629959583282471</v>
+        <v>1.128021955490112</v>
       </c>
       <c r="D43" t="n">
-        <v>1.755687117576599</v>
+        <v>4.044854164123535</v>
       </c>
       <c r="E43" t="n">
-        <v>15.51983833312988</v>
+        <v>0.9909623265266418</v>
       </c>
       <c r="F43" t="n">
-        <v>5.111773490905762</v>
+        <v>0.3692023456096649</v>
       </c>
       <c r="G43" t="n">
-        <v>1.948976755142212</v>
+        <v>2.368540287017822</v>
       </c>
       <c r="H43" t="n">
-        <v>8.997088432312012</v>
+        <v>11.90853023529053</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Qc</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2083,29 +2083,29 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>15.91263294219971</v>
+        <v>4.496697902679443</v>
       </c>
       <c r="C44" t="n">
-        <v>19.96735572814941</v>
+        <v>0.5475074648857117</v>
       </c>
       <c r="D44" t="n">
-        <v>2.57464599609375</v>
+        <v>41.64890289306641</v>
       </c>
       <c r="E44" t="n">
-        <v>308.131591796875</v>
+        <v>0.2771565616130829</v>
       </c>
       <c r="F44" t="n">
-        <v>29.06571197509766</v>
+        <v>-1.16096568107605</v>
       </c>
       <c r="G44" t="n">
-        <v>4.069552421569824</v>
+        <v>26.1444091796875</v>
       </c>
       <c r="H44" t="n">
-        <v>131.6174926757812</v>
+        <v>255.0697326660156</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Qc</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2121,29 +2121,29 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.003635427914559841</v>
+        <v>2.920627593994141e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>2.841998139047064e-07</v>
+        <v>6.103515625e-05</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01270160917192698</v>
+        <v>0.000274658203125</v>
       </c>
       <c r="E45" t="n">
-        <v>0.03479099273681641</v>
+        <v>0.0036773681640625</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3756555020809174</v>
+        <v>6.103515625e-05</v>
       </c>
       <c r="G45" t="n">
-        <v>0.02515391260385513</v>
+        <v>0.00042724609375</v>
       </c>
       <c r="H45" t="n">
-        <v>0.03117862716317177</v>
+        <v>6.034970283508301e-07</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2159,29 +2159,29 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.02220378629863262</v>
+        <v>5.990266799926758e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>1.532025180495111e-06</v>
+        <v>0.0001220703125</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07130438089370728</v>
+        <v>0.000579833984375</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1958105713129044</v>
+        <v>0.014007568359375</v>
       </c>
       <c r="F46" t="n">
-        <v>2.175935506820679</v>
+        <v>0.00018310546875</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1671035140752792</v>
+        <v>0.001220703125</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2337035536766052</v>
+        <v>1.393258571624756e-06</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2197,29 +2197,29 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1161651462316513</v>
+        <v>7.486343383789062e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>7.914207344583701e-06</v>
+        <v>0.00030517578125</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2723598778247833</v>
+        <v>0.00115966796875</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9370580315589905</v>
+        <v>0.0261077880859375</v>
       </c>
       <c r="F47" t="n">
-        <v>10.81572437286377</v>
+        <v>0.00042724609375</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7204884886741638</v>
+        <v>0.003387451171875</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9430941939353943</v>
+        <v>2.041459083557129e-06</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2235,29 +2235,29 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.3620850145816803</v>
+        <v>0.0001165866851806641</v>
       </c>
       <c r="C48" t="n">
-        <v>2.60125525528565e-05</v>
+        <v>0.000640869140625</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6816526055335999</v>
+        <v>0.00225830078125</v>
       </c>
       <c r="E48" t="n">
-        <v>2.638145923614502</v>
+        <v>0.048858642578125</v>
       </c>
       <c r="F48" t="n">
-        <v>31.93605422973633</v>
+        <v>0.000762939453125</v>
       </c>
       <c r="G48" t="n">
-        <v>2.196850776672363</v>
+        <v>0.00457763671875</v>
       </c>
       <c r="H48" t="n">
-        <v>2.612729787826538</v>
+        <v>3.181397914886475e-06</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2273,29 +2273,29 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.8106614351272583</v>
+        <v>0.0001627802848815918</v>
       </c>
       <c r="C49" t="n">
-        <v>4.153713598498143e-05</v>
+        <v>0.00091552734375</v>
       </c>
       <c r="D49" t="n">
-        <v>1.600802540779114</v>
+        <v>0.003326416015625</v>
       </c>
       <c r="E49" t="n">
-        <v>4.804535388946533</v>
+        <v>0.082061767578125</v>
       </c>
       <c r="F49" t="n">
-        <v>61.85789108276367</v>
+        <v>0.0010986328125</v>
       </c>
       <c r="G49" t="n">
-        <v>4.658894538879395</v>
+        <v>0.005523681640625</v>
       </c>
       <c r="H49" t="n">
-        <v>6.066732406616211</v>
+        <v>4.805624485015869e-06</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2311,29 +2311,29 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3.265047788619995</v>
+        <v>0.000527799129486084</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0009535728022456169</v>
+        <v>0.0013427734375</v>
       </c>
       <c r="D50" t="n">
-        <v>4.864513397216797</v>
+        <v>0.00823974609375</v>
       </c>
       <c r="E50" t="n">
-        <v>37.473388671875</v>
+        <v>0.09740447998046875</v>
       </c>
       <c r="F50" t="n">
-        <v>446.6537780761719</v>
+        <v>0.013916015625</v>
       </c>
       <c r="G50" t="n">
-        <v>1330.838012695312</v>
+        <v>0.012298583984375</v>
       </c>
       <c r="H50" t="n">
-        <v>33.30862045288086</v>
+        <v>9.28342342376709e-06</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Tc</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2349,29 +2349,29 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.3615966662764549</v>
+        <v>8.58306884765625e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>3.07455812844637e-05</v>
+        <v>0.000457763671875</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7547312378883362</v>
+        <v>0.00152587890625</v>
       </c>
       <c r="E51" t="n">
-        <v>1.536385178565979</v>
+        <v>0.0159454345703125</v>
       </c>
       <c r="F51" t="n">
-        <v>3.751057803630829</v>
+        <v>0.00714111328125</v>
       </c>
       <c r="G51" t="n">
-        <v>152.1184120178223</v>
+        <v>0.00323486328125</v>
       </c>
       <c r="H51" t="n">
-        <v>3.662066340446472</v>
+        <v>1.624226570129395e-06</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Tc</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2387,29 +2387,29 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.3294332027435303</v>
+        <v>8.273829007521272e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0001055404718499631</v>
+        <v>0.0002758353075478226</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7129172086715698</v>
+        <v>0.0008972547948360443</v>
       </c>
       <c r="E52" t="n">
-        <v>1.249265789985657</v>
+        <v>0.01214502658694983</v>
       </c>
       <c r="F52" t="n">
-        <v>14.86616039276123</v>
+        <v>0.003604321740567684</v>
       </c>
       <c r="G52" t="n">
-        <v>115.013671875</v>
+        <v>0.001635521184653044</v>
       </c>
       <c r="H52" t="n">
-        <v>2.684858560562134</v>
+        <v>1.227015673066489e-06</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Tc</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2425,29 +2425,29 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2366005331277847</v>
+        <v>1.472192057150323e-08</v>
       </c>
       <c r="C53" t="n">
-        <v>3.578279716975885e-08</v>
+        <v>1.154786417600917e-07</v>
       </c>
       <c r="D53" t="n">
-        <v>0.985205352306366</v>
+        <v>1.340411245109863e-06</v>
       </c>
       <c r="E53" t="n">
-        <v>4.602188587188721</v>
+        <v>0.0002713321009650826</v>
       </c>
       <c r="F53" t="n">
-        <v>1464.822875976562</v>
+        <v>1.471071482228581e-05</v>
       </c>
       <c r="G53" t="n">
-        <v>26458.78515625</v>
+        <v>3.835174993582768e-06</v>
       </c>
       <c r="H53" t="n">
-        <v>14.04178905487061</v>
+        <v>2.719155412986285e-12</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Tc</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2463,29 +2463,29 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.497417449951172</v>
+        <v>0.9513369798660278</v>
       </c>
       <c r="C54" t="n">
-        <v>2.571719408035278</v>
+        <v>0.8248043060302734</v>
       </c>
       <c r="D54" t="n">
-        <v>1.524226069450378</v>
+        <v>0.8240665793418884</v>
       </c>
       <c r="E54" t="n">
-        <v>1.660224556922913</v>
+        <v>0.8504037261009216</v>
       </c>
       <c r="F54" t="n">
-        <v>3.732401609420776</v>
+        <v>0.7648563981056213</v>
       </c>
       <c r="G54" t="n">
-        <v>1.272294998168945</v>
+        <v>0.660915732383728</v>
       </c>
       <c r="H54" t="n">
-        <v>1.263959169387817</v>
+        <v>0.7116432785987854</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Ci</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2501,29 +2501,29 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2.519359111785889</v>
+        <v>2.023832559585571</v>
       </c>
       <c r="C55" t="n">
-        <v>3.25977087020874</v>
+        <v>0.9852457642555237</v>
       </c>
       <c r="D55" t="n">
-        <v>2.006050109863281</v>
+        <v>1.393925547599792</v>
       </c>
       <c r="E55" t="n">
-        <v>6.695530414581299</v>
+        <v>1.564087152481079</v>
       </c>
       <c r="F55" t="n">
-        <v>6.57750129699707</v>
+        <v>0.2217660397291183</v>
       </c>
       <c r="G55" t="n">
-        <v>2.507338047027588</v>
+        <v>0.5217881202697754</v>
       </c>
       <c r="H55" t="n">
-        <v>2.328228235244751</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Qc</t>
+          <t>Ci</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2539,29 +2539,29 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>7.07406759262085</v>
+        <v>4.339105606079102</v>
       </c>
       <c r="C56" t="n">
-        <v>9.495891571044922</v>
+        <v>0.0942244678735733</v>
       </c>
       <c r="D56" t="n">
-        <v>3.356448411941528</v>
+        <v>2.73051643371582</v>
       </c>
       <c r="E56" t="n">
-        <v>87.88243865966797</v>
+        <v>2.90218448638916</v>
       </c>
       <c r="F56" t="n">
-        <v>51.19429016113281</v>
+        <v>-1.552804827690125</v>
       </c>
       <c r="G56" t="n">
-        <v>9.571991920471191</v>
+        <v>0.3755455911159515</v>
       </c>
       <c r="H56" t="n">
-        <v>7.906443119049072</v>
+        <v>2.156014680862427</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Qc</t>
+          <t>Ci</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2577,29 +2577,29 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.006170492619276047</v>
+        <v>7.390975952148438e-06</v>
       </c>
       <c r="C57" t="n">
-        <v>2.3228848533563e-07</v>
+        <v>6.103515625e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>0.003755152225494385</v>
+        <v>0.00018310546875</v>
       </c>
       <c r="E57" t="n">
-        <v>0.01365434471517801</v>
+        <v>0.002471923828125</v>
       </c>
       <c r="F57" t="n">
-        <v>0.06377289444208145</v>
+        <v>0.000640869140625</v>
       </c>
       <c r="G57" t="n">
-        <v>3.689850807189941</v>
+        <v>0.000457763671875</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0754036009311676</v>
+        <v>5.662441253662109e-07</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Tc</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2615,29 +2615,29 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.0301077738404274</v>
+        <v>6.449222564697266e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>1.359523480459757e-06</v>
+        <v>0.000152587890625</v>
       </c>
       <c r="D58" t="n">
-        <v>0.02403408288955688</v>
+        <v>0.000518798828125</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1082676649093628</v>
+        <v>0.0084228515625</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3231971859931946</v>
+        <v>0.00146484375</v>
       </c>
       <c r="G58" t="n">
-        <v>17.31350326538086</v>
+        <v>0.001068115234375</v>
       </c>
       <c r="H58" t="n">
-        <v>0.391579270362854</v>
+        <v>1.326203346252441e-06</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Tc</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2653,29 +2653,29 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1263386309146881</v>
+        <v>9.202957153320312e-05</v>
       </c>
       <c r="C59" t="n">
-        <v>7.763016583339777e-06</v>
+        <v>0.00030517578125</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1937901824712753</v>
+        <v>0.0010986328125</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6112579107284546</v>
+        <v>0.0157012939453125</v>
       </c>
       <c r="F59" t="n">
-        <v>1.307612657546997</v>
+        <v>0.003875732421875</v>
       </c>
       <c r="G59" t="n">
-        <v>70.30275726318359</v>
+        <v>0.003143310546875</v>
       </c>
       <c r="H59" t="n">
-        <v>1.581324696540833</v>
+        <v>1.840293407440186e-06</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Tc</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2691,29 +2691,29 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.3917044401168823</v>
+        <v>0.0001503229141235352</v>
       </c>
       <c r="C60" t="n">
-        <v>3.210510476492345e-05</v>
+        <v>0.0006103515625</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7787653207778931</v>
+        <v>0.002044677734375</v>
       </c>
       <c r="E60" t="n">
-        <v>1.644652843475342</v>
+        <v>0.0243682861328125</v>
       </c>
       <c r="F60" t="n">
-        <v>4.074254989624023</v>
+        <v>0.00860595703125</v>
       </c>
       <c r="G60" t="n">
-        <v>169.4319152832031</v>
+        <v>0.004302978515625</v>
       </c>
       <c r="H60" t="n">
-        <v>4.053645610809326</v>
+        <v>2.950429916381836e-06</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Tc</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2729,29 +2729,29 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.9549961090087891</v>
+        <v>0.0002304315567016602</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0001999028027057648</v>
+        <v>0.0009765625</v>
       </c>
       <c r="D61" t="n">
-        <v>2.150060892105103</v>
+        <v>0.00299072265625</v>
       </c>
       <c r="E61" t="n">
-        <v>3.274876117706299</v>
+        <v>0.0429229736328125</v>
       </c>
       <c r="F61" t="n">
-        <v>9.943428993225098</v>
+        <v>0.010589599609375</v>
       </c>
       <c r="G61" t="n">
-        <v>353.0850524902344</v>
+        <v>0.005157470703125</v>
       </c>
       <c r="H61" t="n">
-        <v>7.963633060455322</v>
+        <v>4.723668098449707e-06</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Tc</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2767,29 +2767,29 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.831653118133545</v>
+        <v>6.711483001708984e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>1.279391563002719e-05</v>
+        <v>0.000274658203125</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5428298711776733</v>
+        <v>0.022247314453125</v>
       </c>
       <c r="E62" t="n">
-        <v>229.9914398193359</v>
+        <v>0.351318359375</v>
       </c>
       <c r="F62" t="n">
-        <v>675.2059936523438</v>
+        <v>0.002593994140625</v>
       </c>
       <c r="G62" t="n">
-        <v>3.164409399032593</v>
+        <v>0.026336669921875</v>
       </c>
       <c r="H62" t="n">
-        <v>199.3040008544922</v>
+        <v>5.105137825012207e-05</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2805,29 +2805,29 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.346325364895165</v>
+        <v>3.826618194580078e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>5.567005416651227e-06</v>
+        <v>0.00011444091796875</v>
       </c>
       <c r="D63" t="n">
-        <v>0.02879220969043672</v>
+        <v>0.0084686279296875</v>
       </c>
       <c r="E63" t="n">
-        <v>47.04302370548248</v>
+        <v>0.04432296752929688</v>
       </c>
       <c r="F63" t="n">
-        <v>54.7569831609726</v>
+        <v>0.00020599365234375</v>
       </c>
       <c r="G63" t="n">
-        <v>0.08146777655929327</v>
+        <v>0.01229095458984375</v>
       </c>
       <c r="H63" t="n">
-        <v>64.75040602684021</v>
+        <v>8.746981620788574e-06</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2843,29 +2843,29 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.3733482360839844</v>
+        <v>1.84537966561038e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>3.551875806806493e-06</v>
+        <v>7.339352305280045e-05</v>
       </c>
       <c r="D64" t="n">
-        <v>0.05502147600054741</v>
+        <v>0.004915095400065184</v>
       </c>
       <c r="E64" t="n">
-        <v>42.94586944580078</v>
+        <v>0.07196202129125595</v>
       </c>
       <c r="F64" t="n">
-        <v>83.80207061767578</v>
+        <v>0.0002186673082178459</v>
       </c>
       <c r="G64" t="n">
-        <v>0.2938777208328247</v>
+        <v>0.006752455607056618</v>
       </c>
       <c r="H64" t="n">
-        <v>46.92093276977539</v>
+        <v>1.06602410596679e-05</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2881,29 +2881,29 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2802504599094391</v>
+        <v>4.107551243581753e-10</v>
       </c>
       <c r="C65" t="n">
-        <v>1.916504975552069e-11</v>
+        <v>7.670307944351862e-09</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01306958217173815</v>
+        <v>3.615063542383723e-05</v>
       </c>
       <c r="E65" t="n">
-        <v>3835.457275390625</v>
+        <v>0.01113544963300228</v>
       </c>
       <c r="F65" t="n">
-        <v>22560.376953125</v>
+        <v>2.70768936161403e-07</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4384510815143585</v>
+        <v>6.459676660597324e-05</v>
       </c>
       <c r="H65" t="n">
-        <v>3812.715087890625</v>
+        <v>2.109557112328631e-10</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2919,29 +2919,29 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1.418638229370117</v>
+        <v>0.2590400874614716</v>
       </c>
       <c r="C66" t="n">
-        <v>1.002918601036072</v>
+        <v>0.7257044315338135</v>
       </c>
       <c r="D66" t="n">
-        <v>2.424948930740356</v>
+        <v>0.6804420948028564</v>
       </c>
       <c r="E66" t="n">
-        <v>1.408141374588013</v>
+        <v>0.99695885181427</v>
       </c>
       <c r="F66" t="n">
-        <v>2.164272546768188</v>
+        <v>1.616903185844421</v>
       </c>
       <c r="G66" t="n">
-        <v>2.722430944442749</v>
+        <v>0.5668714642524719</v>
       </c>
       <c r="H66" t="n">
-        <v>1.110717058181763</v>
+        <v>0.6460285782814026</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Tc</t>
+          <t>Tci</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2957,29 +2957,29 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2.022532939910889</v>
+        <v>0.1353455483913422</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>0.8079886436462402</v>
       </c>
       <c r="D67" t="n">
-        <v>4.273013591766357</v>
+        <v>1.050745487213135</v>
       </c>
       <c r="E67" t="n">
-        <v>2.170389413833618</v>
+        <v>1.836019396781921</v>
       </c>
       <c r="F67" t="n">
-        <v>3.540435075759888</v>
+        <v>4.314198017120361</v>
       </c>
       <c r="G67" t="n">
-        <v>4.481098175048828</v>
+        <v>-0.2918752133846283</v>
       </c>
       <c r="H67" t="n">
-        <v>1.431583523750305</v>
+        <v>1.188298940658569</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Tc</t>
+          <t>Tci</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2995,29 +2995,29 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3.458864688873291</v>
+        <v>-1.423210144042969</v>
       </c>
       <c r="C68" t="n">
+        <v>-0.6461724638938904</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.2544316053390503</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2.362763404846191</v>
+      </c>
+      <c r="F68" t="n">
+        <v>19.59927558898926</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-0.9616655707359314</v>
+      </c>
+      <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="D68" t="n">
-        <v>19.16349220275879</v>
-      </c>
-      <c r="E68" t="n">
-        <v>4.434532642364502</v>
-      </c>
-      <c r="F68" t="n">
-        <v>13.59746360778809</v>
-      </c>
-      <c r="G68" t="n">
-        <v>20.54914283752441</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1.183626532554626</v>
-      </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Tc</t>
+          <t>Tci</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3033,29 +3033,29 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01722804345190525</v>
+        <v>6.191730499267578e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>1.856239762787482e-07</v>
+        <v>3.0517578125e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>0.001511538866907358</v>
+        <v>0.0037445068359375</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6678319692611695</v>
+        <v>0.01502151489257813</v>
       </c>
       <c r="F69" t="n">
-        <v>2.1050208568573</v>
+        <v>6.103515625e-05</v>
       </c>
       <c r="G69" t="n">
-        <v>0.003814029041677715</v>
+        <v>0.002032470703125</v>
       </c>
       <c r="H69" t="n">
-        <v>3.175201296806335</v>
+        <v>9.220838546752931e-06</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3071,29 +3071,29 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.03484905045479536</v>
+        <v>6.29723072052002e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>9.289139484280895e-07</v>
+        <v>6.103515625e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>0.003577896626666188</v>
+        <v>0.0041351318359375</v>
       </c>
       <c r="E70" t="n">
-        <v>6.213538527488708</v>
+        <v>0.06018829345703125</v>
       </c>
       <c r="F70" t="n">
-        <v>5.127973198890686</v>
+        <v>9.918212890625e-05</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04436076153069735</v>
+        <v>0.0083160400390625</v>
       </c>
       <c r="H70" t="n">
-        <v>10.21130394935608</v>
+        <v>1.454353332519531e-05</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3109,29 +3109,29 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1929149478673935</v>
+        <v>6.4849853515625e-05</v>
       </c>
       <c r="C71" t="n">
-        <v>2.959720518447284e-06</v>
+        <v>7.62939453125e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>0.01300590531900525</v>
+        <v>0.0063018798828125</v>
       </c>
       <c r="E71" t="n">
-        <v>23.1423454284668</v>
+        <v>0.07125091552734375</v>
       </c>
       <c r="F71" t="n">
-        <v>11.37361097335815</v>
+        <v>0.000274658203125</v>
       </c>
       <c r="G71" t="n">
-        <v>0.07723066583275795</v>
+        <v>0.015777587890625</v>
       </c>
       <c r="H71" t="n">
-        <v>34.06469917297363</v>
+        <v>1.842528581619263e-05</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3147,29 +3147,29 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.3811744153499603</v>
+        <v>0.000101238489151001</v>
       </c>
       <c r="C72" t="n">
-        <v>6.495919365079317e-06</v>
+        <v>0.00017547607421875</v>
       </c>
       <c r="D72" t="n">
-        <v>0.03237010631710291</v>
+        <v>0.012603759765625</v>
       </c>
       <c r="E72" t="n">
-        <v>53.25656223297119</v>
+        <v>0.1045112609863281</v>
       </c>
       <c r="F72" t="n">
-        <v>59.88495635986328</v>
+        <v>0.00030517578125</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1258285380899906</v>
+        <v>0.02060699462890625</v>
       </c>
       <c r="H72" t="n">
-        <v>74.96170997619629</v>
+        <v>2.329051494598389e-05</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3185,29 +3185,29 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.9782613217830662</v>
+        <v>0.0001029253005981445</v>
       </c>
       <c r="C73" t="n">
-        <v>1.186009430966806e-05</v>
+        <v>0.000244140625</v>
       </c>
       <c r="D73" t="n">
-        <v>0.07410199344158173</v>
+        <v>0.017840576171875</v>
       </c>
       <c r="E73" t="n">
-        <v>88.5032196044922</v>
+        <v>0.3238217353820805</v>
       </c>
       <c r="F73" t="n">
-        <v>134.990594482422</v>
+        <v>0.0003631591796875001</v>
       </c>
       <c r="G73" t="n">
-        <v>0.259387090802193</v>
+        <v>0.02294921875</v>
       </c>
       <c r="H73" t="n">
-        <v>167.5273513793947</v>
+        <v>4.853308200836182e-05</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3223,29 +3223,29 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3.366332292556763</v>
+        <v>0.002541661262512207</v>
       </c>
       <c r="C74" t="n">
-        <v>0.009811820462346077</v>
+        <v>0.001922607421875</v>
       </c>
       <c r="D74" t="n">
-        <v>6.596939086914062</v>
+        <v>0.008087158203125</v>
       </c>
       <c r="E74" t="n">
-        <v>40.68108749389648</v>
+        <v>0.11456298828125</v>
       </c>
       <c r="F74" t="n">
-        <v>239.7677612304688</v>
+        <v>0.00091552734375</v>
       </c>
       <c r="G74" t="n">
-        <v>5.501034736633301</v>
+        <v>0.017547607421875</v>
       </c>
       <c r="H74" t="n">
-        <v>28.76151275634766</v>
+        <v>9.767711162567139e-06</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3261,29 +3261,29 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.3115884684957564</v>
+        <v>0.0006284266710281372</v>
       </c>
       <c r="C75" t="n">
-        <v>0.001150161979239783</v>
+        <v>0.000762939453125</v>
       </c>
       <c r="D75" t="n">
-        <v>1.090904965996742</v>
+        <v>0.00159454345703125</v>
       </c>
       <c r="E75" t="n">
-        <v>2.225972592830658</v>
+        <v>0.01707839965820312</v>
       </c>
       <c r="F75" t="n">
-        <v>4.969079598784447</v>
+        <v>0.000457763671875</v>
       </c>
       <c r="G75" t="n">
-        <v>0.8671996332705021</v>
+        <v>0.00336456298828125</v>
       </c>
       <c r="H75" t="n">
-        <v>3.182922594249249</v>
+        <v>1.799315214157104e-06</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3299,29 +3299,29 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.2785279452800751</v>
+        <v>0.0004453745787031949</v>
       </c>
       <c r="C76" t="n">
-        <v>0.001155830337665975</v>
+        <v>0.0004258147382643074</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9033321738243103</v>
+        <v>0.0009831113275140524</v>
       </c>
       <c r="E76" t="n">
-        <v>1.792560815811157</v>
+        <v>0.01287914253771305</v>
       </c>
       <c r="F76" t="n">
-        <v>6.201919078826904</v>
+        <v>0.0002180278243031353</v>
       </c>
       <c r="G76" t="n">
-        <v>0.6099302768707275</v>
+        <v>0.001746246358379722</v>
       </c>
       <c r="H76" t="n">
-        <v>2.473678827285767</v>
+        <v>1.244854047399713e-06</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3337,29 +3337,29 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.175922304391861</v>
+        <v>2.976695157030917e-07</v>
       </c>
       <c r="C77" t="n">
-        <v>3.033968141608057e-06</v>
+        <v>2.502049483155133e-07</v>
       </c>
       <c r="D77" t="n">
-        <v>1.564471840858459</v>
+        <v>1.53917062561959e-06</v>
       </c>
       <c r="E77" t="n">
-        <v>8.355999946594238</v>
+        <v>0.0003194992605131119</v>
       </c>
       <c r="F77" t="n">
-        <v>188.6461029052734</v>
+        <v>5.72023211020678e-08</v>
       </c>
       <c r="G77" t="n">
-        <v>0.6503400206565857</v>
+        <v>4.426418399816612e-06</v>
       </c>
       <c r="H77" t="n">
-        <v>13.45355224609375</v>
+        <v>2.795149745341008e-12</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3375,29 +3375,29 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1.580640196800232</v>
+        <v>0.5663537979125977</v>
       </c>
       <c r="C78" t="n">
-        <v>1.561129212379456</v>
+        <v>0.7087263464927673</v>
       </c>
       <c r="D78" t="n">
-        <v>1.210907220840454</v>
+        <v>0.8083245754241943</v>
       </c>
       <c r="E78" t="n">
-        <v>1.591275453567505</v>
+        <v>0.8709002137184143</v>
       </c>
       <c r="F78" t="n">
-        <v>2.497398853302002</v>
+        <v>0.6353051662445068</v>
       </c>
       <c r="G78" t="n">
-        <v>1.206724643707275</v>
+        <v>0.6644893884658813</v>
       </c>
       <c r="H78" t="n">
-        <v>1.414977788925171</v>
+        <v>0.7052286863327026</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3413,29 +3413,29 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3.024570226669312</v>
+        <v>0.5424032807350159</v>
       </c>
       <c r="C79" t="n">
-        <v>2.528155326843262</v>
+        <v>0.5085315704345703</v>
       </c>
       <c r="D79" t="n">
-        <v>1.888642191886902</v>
+        <v>1.218392133712769</v>
       </c>
       <c r="E79" t="n">
-        <v>5.017869472503662</v>
+        <v>1.846118211746216</v>
       </c>
       <c r="F79" t="n">
-        <v>8.781465530395508</v>
+        <v>-0.2028808444738388</v>
       </c>
       <c r="G79" t="n">
-        <v>1.870366096496582</v>
+        <v>0.7860509753227234</v>
       </c>
       <c r="H79" t="n">
-        <v>2.863784313201904</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3451,29 +3451,29 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>12.29948806762695</v>
+        <v>-0.6751638650894165</v>
       </c>
       <c r="C80" t="n">
-        <v>6.452747821807861</v>
+        <v>-0.8852190375328064</v>
       </c>
       <c r="D80" t="n">
-        <v>3.209713697433472</v>
+        <v>1.537499070167542</v>
       </c>
       <c r="E80" t="n">
-        <v>45.64451599121094</v>
+        <v>4.244091987609863</v>
       </c>
       <c r="F80" t="n">
-        <v>112.7810745239258</v>
+        <v>-1.422194004058838</v>
       </c>
       <c r="G80" t="n">
-        <v>4.323124408721924</v>
+        <v>2.43887734413147</v>
       </c>
       <c r="H80" t="n">
-        <v>11.23668193817139</v>
+        <v>2.659795999526978</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3489,29 +3489,29 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.003368512867018581</v>
+        <v>0.000408017635345459</v>
       </c>
       <c r="C81" t="n">
-        <v>1.721615280985134e-05</v>
+        <v>9.1552734375e-05</v>
       </c>
       <c r="D81" t="n">
-        <v>0.04221672974526883</v>
+        <v>0.000244140625</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0259500328451395</v>
+        <v>0.0030792236328125</v>
       </c>
       <c r="F81" t="n">
-        <v>0.05692586340010167</v>
+        <v>3.0517578125e-05</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01098831444978714</v>
+        <v>0.00054931640625</v>
       </c>
       <c r="H81" t="n">
-        <v>0.04309009090065957</v>
+        <v>5.938112735748292e-07</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3527,29 +3527,29 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.02180383121594787</v>
+        <v>0.0005675852298736572</v>
       </c>
       <c r="C82" t="n">
-        <v>0.000100835206467309</v>
+        <v>0.000335693359375</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1922555714845657</v>
+        <v>0.0006103515625</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1709181666374207</v>
+        <v>0.0092010498046875</v>
       </c>
       <c r="F82" t="n">
-        <v>0.3583662658929825</v>
+        <v>0.0001220703125</v>
       </c>
       <c r="G82" t="n">
-        <v>0.07786646112799644</v>
+        <v>0.00124359130859375</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2736435011029243</v>
+        <v>1.30385160446167e-06</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3565,29 +3565,29 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.09405236691236496</v>
+        <v>0.0008261799812316895</v>
       </c>
       <c r="C83" t="n">
-        <v>0.000413442772696726</v>
+        <v>0.000579833984375</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5840344130992889</v>
+        <v>0.00115966796875</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7590720653533936</v>
+        <v>0.01598358154296875</v>
       </c>
       <c r="F83" t="n">
-        <v>1.590818107128143</v>
+        <v>0.000457763671875</v>
       </c>
       <c r="G83" t="n">
-        <v>0.357599750161171</v>
+        <v>0.003387451171875</v>
       </c>
       <c r="H83" t="n">
-        <v>1.203010618686676</v>
+        <v>1.911073923110962e-06</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3603,29 +3603,29 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.3333922997117043</v>
+        <v>0.001196011900901794</v>
       </c>
       <c r="C84" t="n">
-        <v>0.001250997185707092</v>
+        <v>0.0010986328125</v>
       </c>
       <c r="D84" t="n">
-        <v>1.283160537481308</v>
+        <v>0.00220489501953125</v>
       </c>
       <c r="E84" t="n">
-        <v>2.396890759468079</v>
+        <v>0.02627944946289062</v>
       </c>
       <c r="F84" t="n">
-        <v>5.327445864677429</v>
+        <v>0.000579833984375</v>
       </c>
       <c r="G84" t="n">
-        <v>0.9450660943984985</v>
+        <v>0.004608154296875</v>
       </c>
       <c r="H84" t="n">
-        <v>3.456566095352173</v>
+        <v>3.103166818618774e-06</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3641,29 +3641,29 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.7421622157096863</v>
+        <v>0.0018241286277771</v>
       </c>
       <c r="C85" t="n">
-        <v>0.003246859717182815</v>
+        <v>0.00146484375</v>
       </c>
       <c r="D85" t="n">
-        <v>2.884224247932434</v>
+        <v>0.00335693359375</v>
       </c>
       <c r="E85" t="n">
-        <v>4.919771432876588</v>
+        <v>0.0407562255859375</v>
       </c>
       <c r="F85" t="n">
-        <v>13.48126802444459</v>
+        <v>0.000640869140625</v>
       </c>
       <c r="G85" t="n">
-        <v>1.770325803756714</v>
+        <v>0.005462646484375</v>
       </c>
       <c r="H85" t="n">
-        <v>6.728789758682251</v>
+        <v>4.53069806098938e-06</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3679,25 +3679,25 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2.320976972579956</v>
+        <v>0.0004045367240905762</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0001872363936854526</v>
+        <v>0.00146484375</v>
       </c>
       <c r="D86" t="n">
-        <v>9.986199378967285</v>
+        <v>0.028045654296875</v>
       </c>
       <c r="E86" t="n">
-        <v>409.2691955566406</v>
+        <v>0.0920867919921875</v>
       </c>
       <c r="F86" t="n">
-        <v>320.1044616699219</v>
+        <v>0.001556396484375</v>
       </c>
       <c r="G86" t="n">
-        <v>26.79471397399902</v>
+        <v>0.03326416015625</v>
       </c>
       <c r="H86" t="n">
-        <v>88.83327484130859</v>
+        <v>6.43506646156311e-05</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -3717,25 +3717,25 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.4007270038127899</v>
+        <v>5.793571472167969e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>2.848000212907209e-05</v>
+        <v>0.000457763671875</v>
       </c>
       <c r="D87" t="n">
-        <v>1.033946417272091</v>
+        <v>0.011627197265625</v>
       </c>
       <c r="E87" t="n">
-        <v>103.3814392089844</v>
+        <v>0.015869140625</v>
       </c>
       <c r="F87" t="n">
-        <v>3.630978405475616</v>
+        <v>0.000823974609375</v>
       </c>
       <c r="G87" t="n">
-        <v>3.713759422302246</v>
+        <v>0.0035400390625</v>
       </c>
       <c r="H87" t="n">
-        <v>3.19047537446022</v>
+        <v>2.011656761169434e-06</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -3755,25 +3755,25 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.2410426735877991</v>
+        <v>5.738894469686784e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>3.219227437512018e-05</v>
+        <v>0.0002869764866773039</v>
       </c>
       <c r="D88" t="n">
-        <v>0.750962495803833</v>
+        <v>0.006040901411324739</v>
       </c>
       <c r="E88" t="n">
-        <v>55.49959182739258</v>
+        <v>0.01181010622531176</v>
       </c>
       <c r="F88" t="n">
-        <v>10.20503425598145</v>
+        <v>0.0004060052160639316</v>
       </c>
       <c r="G88" t="n">
-        <v>2.337044239044189</v>
+        <v>0.001832677517086267</v>
       </c>
       <c r="H88" t="n">
-        <v>2.96916651725769</v>
+        <v>1.542314294056268e-06</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -3793,25 +3793,25 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.09157542884349823</v>
+        <v>7.488127451438231e-09</v>
       </c>
       <c r="C89" t="n">
-        <v>1.853719067135273e-09</v>
+        <v>1.330346321992693e-07</v>
       </c>
       <c r="D89" t="n">
-        <v>1.059126496315002</v>
+        <v>4.994850678485818e-05</v>
       </c>
       <c r="E89" t="n">
-        <v>4583.75927734375</v>
+        <v>0.0002435894857626408</v>
       </c>
       <c r="F89" t="n">
-        <v>710.554931640625</v>
+        <v>1.980412065449855e-07</v>
       </c>
       <c r="G89" t="n">
-        <v>9.473169326782227</v>
+        <v>5.850382422067923e-06</v>
       </c>
       <c r="H89" t="n">
-        <v>35.29319763183594</v>
+        <v>8.387950056754079e-12</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -3831,29 +3831,29 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1.15127956867218</v>
+        <v>0.6501004695892334</v>
       </c>
       <c r="C90" t="n">
-        <v>1.381719708442688</v>
+        <v>0.8031500577926636</v>
       </c>
       <c r="D90" t="n">
-        <v>1.341609954833984</v>
+        <v>0.7464075088500977</v>
       </c>
       <c r="E90" t="n">
-        <v>1.020449995994568</v>
+        <v>0.8017446398735046</v>
       </c>
       <c r="F90" t="n">
-        <v>3.475242853164673</v>
+        <v>0.7231935858726501</v>
       </c>
       <c r="G90" t="n">
-        <v>1.182714581489563</v>
+        <v>0.7234097123146057</v>
       </c>
       <c r="H90" t="n">
-        <v>1.995164155960083</v>
+        <v>1.0583176612854</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3869,25 +3869,25 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1.547761559486389</v>
+        <v>1.413018226623535</v>
       </c>
       <c r="C91" t="n">
-        <v>1.753745913505554</v>
+        <v>1.128861665725708</v>
       </c>
       <c r="D91" t="n">
-        <v>2.374142408370972</v>
+        <v>0.6082658171653748</v>
       </c>
       <c r="E91" t="n">
-        <v>1.078495025634766</v>
+        <v>1.366475343704224</v>
       </c>
       <c r="F91" t="n">
-        <v>8.08695125579834</v>
+        <v>0.146066889166832</v>
       </c>
       <c r="G91" t="n">
-        <v>2.011409997940063</v>
+        <v>2.948517560958862</v>
       </c>
       <c r="H91" t="n">
-        <v>8.248364448547363</v>
+        <v>10.76023960113525</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -3907,25 +3907,25 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>3.291903018951416</v>
+        <v>2.822976589202881</v>
       </c>
       <c r="C92" t="n">
-        <v>1.951083302497864</v>
+        <v>0.8893090486526489</v>
       </c>
       <c r="D92" t="n">
-        <v>9.35092830657959</v>
+        <v>-0.8644626140594482</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4467136859893799</v>
+        <v>2.145721912384033</v>
       </c>
       <c r="F92" t="n">
-        <v>78.28301239013672</v>
+        <v>-1.246623039245605</v>
       </c>
       <c r="G92" t="n">
-        <v>6.52909517288208</v>
+        <v>29.6402759552002</v>
       </c>
       <c r="H92" t="n">
-        <v>99.95716857910156</v>
+        <v>209.0709533691406</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -3945,25 +3945,25 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.004179969429969788</v>
+        <v>1.126527786254883e-05</v>
       </c>
       <c r="C93" t="n">
-        <v>8.111275064948131e-07</v>
+        <v>6.103515625e-05</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0087091363966465</v>
+        <v>0.001495361328125</v>
       </c>
       <c r="E93" t="n">
-        <v>1.513978242874146</v>
+        <v>0.0026397705078125</v>
       </c>
       <c r="F93" t="n">
-        <v>0.04294411465525627</v>
+        <v>6.103515625e-05</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04755828157067299</v>
+        <v>0.000640869140625</v>
       </c>
       <c r="H93" t="n">
-        <v>0.04719957709312439</v>
+        <v>6.034970283508301e-07</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -3983,25 +3983,25 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.02382853627204895</v>
+        <v>8.749961853027344e-05</v>
       </c>
       <c r="C94" t="n">
-        <v>4.791897026734659e-06</v>
+        <v>0.00018310546875</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0589359775185585</v>
+        <v>0.003692626953125</v>
       </c>
       <c r="E94" t="n">
-        <v>9.160560607910156</v>
+        <v>0.009063720703125</v>
       </c>
       <c r="F94" t="n">
-        <v>0.3693878054618835</v>
+        <v>0.00018310546875</v>
       </c>
       <c r="G94" t="n">
-        <v>0.2781879901885986</v>
+        <v>0.001251220703125</v>
       </c>
       <c r="H94" t="n">
-        <v>0.3314467370510101</v>
+        <v>1.445412635803223e-06</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -4021,25 +4021,25 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.1445319354534149</v>
+        <v>0.0001302957534790039</v>
       </c>
       <c r="C95" t="n">
-        <v>1.14006434159819e-05</v>
+        <v>0.0003662109375</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3481677174568176</v>
+        <v>0.007415771484375</v>
       </c>
       <c r="E95" t="n">
-        <v>43.85828399658203</v>
+        <v>0.016021728515625</v>
       </c>
       <c r="F95" t="n">
-        <v>1.366789937019348</v>
+        <v>0.000701904296875</v>
       </c>
       <c r="G95" t="n">
-        <v>1.389575362205505</v>
+        <v>0.003448486328125</v>
       </c>
       <c r="H95" t="n">
-        <v>1.264526605606079</v>
+        <v>2.153217792510986e-06</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -4059,25 +4059,25 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.4245555400848389</v>
+        <v>0.0001454353332519531</v>
       </c>
       <c r="C96" t="n">
-        <v>3.327189915580675e-05</v>
+        <v>0.000640869140625</v>
       </c>
       <c r="D96" t="n">
-        <v>1.092882394790649</v>
+        <v>0.01531982421875</v>
       </c>
       <c r="E96" t="n">
-        <v>112.5419998168945</v>
+        <v>0.024932861328125</v>
       </c>
       <c r="F96" t="n">
-        <v>4.0003662109375</v>
+        <v>0.001007080078125</v>
       </c>
       <c r="G96" t="n">
-        <v>3.991947412490845</v>
+        <v>0.004791259765625</v>
       </c>
       <c r="H96" t="n">
-        <v>3.52192211151123</v>
+        <v>3.457069396972656e-06</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -4097,25 +4097,25 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.7202749848365784</v>
+        <v>0.0002191066741943359</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0001048250196618028</v>
+        <v>0.00091552734375</v>
       </c>
       <c r="D97" t="n">
-        <v>2.158123016357422</v>
+        <v>0.020477294921875</v>
       </c>
       <c r="E97" t="n">
-        <v>171.3336181640625</v>
+        <v>0.0408782958984375</v>
       </c>
       <c r="F97" t="n">
-        <v>15.07232284545898</v>
+        <v>0.0010986328125</v>
       </c>
       <c r="G97" t="n">
-        <v>6.79562520980835</v>
+        <v>0.005828857421875</v>
       </c>
       <c r="H97" t="n">
-        <v>7.206917762756348</v>
+        <v>5.058944225311279e-06</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -4135,29 +4135,29 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>3.528344869613647</v>
+        <v>0.0005373954772949219</v>
       </c>
       <c r="C98" t="n">
-        <v>0.001173234195448458</v>
+        <v>0.001861572265625</v>
       </c>
       <c r="D98" t="n">
-        <v>6.208726406097412</v>
+        <v>0.101776123046875</v>
       </c>
       <c r="E98" t="n">
-        <v>2684.43896484375</v>
+        <v>0.1253767013549805</v>
       </c>
       <c r="F98" t="n">
-        <v>8105.65185546875</v>
+        <v>0.000946044921875</v>
       </c>
       <c r="G98" t="n">
-        <v>3.105265855789185</v>
+        <v>0.10687255859375</v>
       </c>
       <c r="H98" t="n">
-        <v>7141.67138671875</v>
+        <v>0.0001687966287136078</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -4173,29 +4173,29 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.07205746235558763</v>
+        <v>0.0002059340476989746</v>
       </c>
       <c r="C99" t="n">
-        <v>1.911078692273804e-05</v>
+        <v>0.00106048583984375</v>
       </c>
       <c r="D99" t="n">
-        <v>1.14637928456068</v>
+        <v>0.02010345458984375</v>
       </c>
       <c r="E99" t="n">
-        <v>149.3356521129608</v>
+        <v>0.010528564453125</v>
       </c>
       <c r="F99" t="n">
-        <v>2.107761800289154</v>
+        <v>0.00048828125</v>
       </c>
       <c r="G99" t="n">
-        <v>0.6864109393209219</v>
+        <v>0.01312255859375</v>
       </c>
       <c r="H99" t="n">
-        <v>1331.60457611084</v>
+        <v>8.736550807952881e-05</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4211,29 +4211,29 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.3807983994483948</v>
+        <v>0.000129507461679168</v>
       </c>
       <c r="C100" t="n">
-        <v>9.857491386355832e-05</v>
+        <v>0.0005299774347804487</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9320991635322571</v>
+        <v>0.01100037898868322</v>
       </c>
       <c r="E100" t="n">
-        <v>410.1586608886719</v>
+        <v>0.0152747668325901</v>
       </c>
       <c r="F100" t="n">
-        <v>1061.581298828125</v>
+        <v>0.0002649304806254804</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4022687375545502</v>
+        <v>0.01132529973983765</v>
       </c>
       <c r="H100" t="n">
-        <v>823.3640747070312</v>
+        <v>4.360644015832804e-05</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4249,29 +4249,29 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.3275012671947479</v>
+        <v>2.605630022856076e-08</v>
       </c>
       <c r="C101" t="n">
-        <v>2.835778012411083e-08</v>
+        <v>3.255195224483032e-07</v>
       </c>
       <c r="D101" t="n">
-        <v>1.592658162117004</v>
+        <v>0.0002227919612778351</v>
       </c>
       <c r="E101" t="n">
-        <v>322850.96875</v>
+        <v>0.0007969214348122478</v>
       </c>
       <c r="F101" t="n">
-        <v>4264194.5</v>
+        <v>8.929219319497861e-08</v>
       </c>
       <c r="G101" t="n">
-        <v>0.2638369798660278</v>
+        <v>0.0003386739990673959</v>
       </c>
       <c r="H101" t="n">
-        <v>1119658.625</v>
+        <v>2.691688427702843e-09</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4287,29 +4287,29 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2.143314361572266</v>
+        <v>0.381052166223526</v>
       </c>
       <c r="C102" t="n">
-        <v>2.383167028427124</v>
+        <v>0.6471071839332581</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9950178265571594</v>
+        <v>0.5629187226295471</v>
       </c>
       <c r="E102" t="n">
-        <v>1.783087849617004</v>
+        <v>1.437391638755798</v>
       </c>
       <c r="F102" t="n">
-        <v>3.584170579910278</v>
+        <v>0.8965864181518555</v>
       </c>
       <c r="G102" t="n">
-        <v>1.136246681213379</v>
+        <v>0.2265512943267822</v>
       </c>
       <c r="H102" t="n">
-        <v>1.023280143737793</v>
+        <v>0.5822249054908752</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4325,29 +4325,29 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>3.202466249465942</v>
+        <v>0.4357105493545532</v>
       </c>
       <c r="C103" t="n">
-        <v>3.857377052307129</v>
+        <v>-0.04987360164523125</v>
       </c>
       <c r="D103" t="n">
-        <v>1.655937671661377</v>
+        <v>2.270768880844116</v>
       </c>
       <c r="E103" t="n">
-        <v>2.282602310180664</v>
+        <v>3.027580976486206</v>
       </c>
       <c r="F103" t="n">
-        <v>3.347363710403442</v>
+        <v>0.6181394457817078</v>
       </c>
       <c r="G103" t="n">
-        <v>1.624522089958191</v>
+        <v>-2.049911022186279</v>
       </c>
       <c r="H103" t="n">
-        <v>1.903271079063416</v>
+        <v>-0.06588302552700043</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Ti</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4363,29 +4363,29 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>12.17672824859619</v>
+        <v>-0.811511218547821</v>
       </c>
       <c r="C104" t="n">
-        <v>17.11173057556152</v>
+        <v>-1.515573859214783</v>
       </c>
       <c r="D104" t="n">
-        <v>2.274331569671631</v>
+        <v>7.262976169586182</v>
       </c>
       <c r="E104" t="n">
-        <v>5.042694568634033</v>
+        <v>7.995455741882324</v>
       </c>
       <c r="F104" t="n">
-        <v>9.275991439819336</v>
+        <v>-1.138790965080261</v>
       </c>
       <c r="G104" t="n">
-        <v>3.459004163742065</v>
+        <v>7.251861095428467</v>
       </c>
       <c r="H104" t="n">
-        <v>5.964448928833008</v>
+        <v>-1.141281843185425</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Ti</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4401,29 +4401,29 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.0002656031865626574</v>
+        <v>0.0002315044403076172</v>
       </c>
       <c r="C105" t="n">
-        <v>7.970175204263796e-07</v>
+        <v>0.0001220703125</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1784036308526993</v>
+        <v>0.0146942138671875</v>
       </c>
       <c r="E105" t="n">
-        <v>7.043595790863037</v>
+        <v>0.0029449462890625</v>
       </c>
       <c r="F105" t="n">
-        <v>1.681830644607544</v>
+        <v>3.0517578125e-05</v>
       </c>
       <c r="G105" t="n">
-        <v>0.009552304167300463</v>
+        <v>0.0673065185546875</v>
       </c>
       <c r="H105" t="n">
-        <v>116.479320526123</v>
+        <v>1.162290573120117e-05</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Tc</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4439,29 +4439,29 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.002156137430574745</v>
+        <v>0.0002816319465637207</v>
       </c>
       <c r="C106" t="n">
-        <v>2.602443203159055e-06</v>
+        <v>0.0003662109375</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4091602936387062</v>
+        <v>0.01644134521484375</v>
       </c>
       <c r="E106" t="n">
-        <v>13.85579991340637</v>
+        <v>0.007221221923828125</v>
       </c>
       <c r="F106" t="n">
-        <v>2.138788998126984</v>
+        <v>9.1552734375e-05</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03889582492411137</v>
+        <v>0.07415771484375</v>
       </c>
       <c r="H106" t="n">
-        <v>212.578254699707</v>
+        <v>5.237758159637451e-05</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Tc</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4477,29 +4477,29 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.03183266520500183</v>
+        <v>0.0004329085350036621</v>
       </c>
       <c r="C107" t="n">
-        <v>8.050200904108351e-06</v>
+        <v>0.0010528564453125</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8618246614933014</v>
+        <v>0.0204925537109375</v>
       </c>
       <c r="E107" t="n">
-        <v>79.47415542602539</v>
+        <v>0.01267242431640625</v>
       </c>
       <c r="F107" t="n">
-        <v>2.779395341873169</v>
+        <v>0.00018310546875</v>
       </c>
       <c r="G107" t="n">
-        <v>0.2651144862174988</v>
+        <v>0.0829620361328125</v>
       </c>
       <c r="H107" t="n">
-        <v>568.3237609863281</v>
+        <v>8.317828178405762e-05</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Tc</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4515,29 +4515,29 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.07421359978616238</v>
+        <v>0.0004875659942626953</v>
       </c>
       <c r="C108" t="n">
-        <v>2.17132301258971e-05</v>
+        <v>0.00142669677734375</v>
       </c>
       <c r="D108" t="n">
-        <v>1.555539578199387</v>
+        <v>0.0365447998046875</v>
       </c>
       <c r="E108" t="n">
-        <v>163.1914520263672</v>
+        <v>0.01774978637695312</v>
       </c>
       <c r="F108" t="n">
-        <v>4.246550798416138</v>
+        <v>0.000579833984375</v>
       </c>
       <c r="G108" t="n">
-        <v>0.7253067642450333</v>
+        <v>0.0872802734375</v>
       </c>
       <c r="H108" t="n">
-        <v>1544.182830810547</v>
+        <v>0.0001397430896759033</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Tc</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4553,29 +4553,29 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.9694236218929291</v>
+        <v>0.0007187724113464355</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0002206612189183943</v>
+        <v>0.0015716552734375</v>
       </c>
       <c r="D109" t="n">
-        <v>3.325109481811523</v>
+        <v>0.04150390625</v>
       </c>
       <c r="E109" t="n">
-        <v>1213.754272460938</v>
+        <v>0.026153564453125</v>
       </c>
       <c r="F109" t="n">
-        <v>13.93969345092773</v>
+        <v>0.00079345703125</v>
       </c>
       <c r="G109" t="n">
-        <v>1.143409371376038</v>
+        <v>0.1057586669921875</v>
       </c>
       <c r="H109" t="n">
-        <v>2353.38037109375</v>
+        <v>0.0001603215932846069</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Tc</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4591,29 +4591,29 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>4.474489212036133</v>
+        <v>0.000362098217010498</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0003663124225568026</v>
+        <v>0.001708984375</v>
       </c>
       <c r="D110" t="n">
-        <v>8.013059616088867</v>
+        <v>0.014892578125</v>
       </c>
       <c r="E110" t="n">
-        <v>80.69267272949219</v>
+        <v>0.1180419921875</v>
       </c>
       <c r="F110" t="n">
-        <v>177.8736877441406</v>
+        <v>0.001312255859375</v>
       </c>
       <c r="G110" t="n">
-        <v>11.47647953033447</v>
+        <v>0.04815673828125</v>
       </c>
       <c r="H110" t="n">
-        <v>617.237548828125</v>
+        <v>4.980713129043579e-05</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4629,29 +4629,29 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.256133820861578</v>
+        <v>0.00012969970703125</v>
       </c>
       <c r="C111" t="n">
-        <v>3.232085055060452e-05</v>
+        <v>0.000701904296875</v>
       </c>
       <c r="D111" t="n">
-        <v>1.107455313205719</v>
+        <v>0.00164794921875</v>
       </c>
       <c r="E111" t="n">
-        <v>2.545334309339523</v>
+        <v>0.0159759521484375</v>
       </c>
       <c r="F111" t="n">
-        <v>5.302253663539886</v>
+        <v>0.0006103515625</v>
       </c>
       <c r="G111" t="n">
-        <v>1.69643048197031</v>
+        <v>0.0224609375</v>
       </c>
       <c r="H111" t="n">
-        <v>201.5571250915527</v>
+        <v>1.840293407440186e-06</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Tc</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4667,29 +4667,29 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.2438528388738632</v>
+        <v>8.001548849279061e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>2.867313196475152e-05</v>
+        <v>0.0003939708112739027</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8591657280921936</v>
+        <v>0.001032562926411629</v>
       </c>
       <c r="E112" t="n">
-        <v>2.235122442245483</v>
+        <v>0.01559937559068203</v>
       </c>
       <c r="F112" t="n">
-        <v>8.467710494995117</v>
+        <v>0.0003406931937206537</v>
       </c>
       <c r="G112" t="n">
-        <v>1.560769557952881</v>
+        <v>0.01086951419711113</v>
       </c>
       <c r="H112" t="n">
-        <v>116.7502517700195</v>
+        <v>1.41931559483055e-06</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4705,29 +4705,29 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.1772805005311966</v>
+        <v>9.407242984593722e-09</v>
       </c>
       <c r="C113" t="n">
-        <v>1.89465465538774e-09</v>
+        <v>2.15282540239059e-07</v>
       </c>
       <c r="D113" t="n">
-        <v>1.471538782119751</v>
+        <v>2.079669457089039e-06</v>
       </c>
       <c r="E113" t="n">
-        <v>22.73504638671875</v>
+        <v>0.0005058312672190368</v>
       </c>
       <c r="F113" t="n">
-        <v>256.4651794433594</v>
+        <v>1.421468880380417e-07</v>
       </c>
       <c r="G113" t="n">
-        <v>5.242367267608643</v>
+        <v>0.0001488813868490979</v>
       </c>
       <c r="H113" t="n">
-        <v>19606.6484375</v>
+        <v>5.916728478688738e-12</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4743,29 +4743,29 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1.781969666481018</v>
+        <v>0.7614786624908447</v>
       </c>
       <c r="C114" t="n">
-        <v>1.431384086608887</v>
+        <v>0.8608076572418213</v>
       </c>
       <c r="D114" t="n">
-        <v>1.059185147285461</v>
+        <v>0.8921236395835876</v>
       </c>
       <c r="E114" t="n">
-        <v>2.163260936737061</v>
+        <v>0.9652988314628601</v>
       </c>
       <c r="F114" t="n">
-        <v>2.254532098770142</v>
+        <v>0.8150443434715271</v>
       </c>
       <c r="G114" t="n">
-        <v>1.565900444984436</v>
+        <v>0.6328878402709961</v>
       </c>
       <c r="H114" t="n">
-        <v>0.9683293700218201</v>
+        <v>0.9436324238777161</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Tci</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4781,29 +4781,29 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>4.642811298370361</v>
+        <v>0.912386417388916</v>
       </c>
       <c r="C115" t="n">
-        <v>2.915002346038818</v>
+        <v>0.7840714454650879</v>
       </c>
       <c r="D115" t="n">
-        <v>2.107301950454712</v>
+        <v>2.789299964904785</v>
       </c>
       <c r="E115" t="n">
-        <v>10.20109844207764</v>
+        <v>1.939250588417053</v>
       </c>
       <c r="F115" t="n">
-        <v>4.937958717346191</v>
+        <v>0.509748101234436</v>
       </c>
       <c r="G115" t="n">
-        <v>2.374595165252686</v>
+        <v>0.08541741967201233</v>
       </c>
       <c r="H115" t="n">
-        <v>1.060437917709351</v>
+        <v>8.388326644897461</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Qc</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4819,29 +4819,29 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>31.68887519836426</v>
+        <v>-0.2707484662532806</v>
       </c>
       <c r="C116" t="n">
-        <v>11.21199131011963</v>
+        <v>-0.3115371465682983</v>
       </c>
       <c r="D116" t="n">
-        <v>5.000627040863037</v>
+        <v>16.70114898681641</v>
       </c>
       <c r="E116" t="n">
-        <v>147.8997192382812</v>
+        <v>3.576867818832397</v>
       </c>
       <c r="F116" t="n">
-        <v>31.63784217834473</v>
+        <v>-0.9388591647148132</v>
       </c>
       <c r="G116" t="n">
-        <v>5.385693550109863</v>
+        <v>-1.208231449127197</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.1062885671854019</v>
+        <v>145.2882995605469</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Qc</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4857,29 +4857,29 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.003822895465418696</v>
+        <v>3.021955490112305e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>5.623290917355916e-07</v>
+        <v>3.0517578125e-05</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1639004349708557</v>
+        <v>0.000274658203125</v>
       </c>
       <c r="E117" t="n">
-        <v>0.02686645835638046</v>
+        <v>0.0029449462890625</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0682174414396286</v>
+        <v>6.103515625e-05</v>
       </c>
       <c r="G117" t="n">
-        <v>0.009976820088922977</v>
+        <v>0.00372314453125</v>
       </c>
       <c r="H117" t="n">
-        <v>13.96037578582764</v>
+        <v>6.258487701416016e-07</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Tc</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4895,29 +4895,29 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.0204072929918766</v>
+        <v>6.186962127685547e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>4.158312549407128e-06</v>
+        <v>0.0001220703125</v>
       </c>
       <c r="D118" t="n">
-        <v>0.3584708571434021</v>
+        <v>0.0006103515625</v>
       </c>
       <c r="E118" t="n">
-        <v>0.1751318275928497</v>
+        <v>0.010162353515625</v>
       </c>
       <c r="F118" t="n">
-        <v>0.4086037278175354</v>
+        <v>0.000152587890625</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08764620870351791</v>
+        <v>0.0064697265625</v>
       </c>
       <c r="H118" t="n">
-        <v>43.51900100708008</v>
+        <v>1.378357410430908e-06</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4933,29 +4933,29 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.08955113589763641</v>
+        <v>9.298324584960938e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>1.462385444028769e-05</v>
+        <v>0.000396728515625</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7338645458221436</v>
+        <v>0.001220703125</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9156167507171631</v>
+        <v>0.0170135498046875</v>
       </c>
       <c r="F119" t="n">
-        <v>1.730515837669373</v>
+        <v>0.00030517578125</v>
       </c>
       <c r="G119" t="n">
-        <v>0.4843935668468475</v>
+        <v>0.021331787109375</v>
       </c>
       <c r="H119" t="n">
-        <v>81.30185699462891</v>
+        <v>2.071261405944824e-06</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Tc</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4971,29 +4971,29 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.2765411138534546</v>
+        <v>0.0001915693283081055</v>
       </c>
       <c r="C120" t="n">
-        <v>3.647916310001165e-05</v>
+        <v>0.000823974609375</v>
       </c>
       <c r="D120" t="n">
-        <v>1.465926170349121</v>
+        <v>0.00225830078125</v>
       </c>
       <c r="E120" t="n">
-        <v>2.720466136932373</v>
+        <v>0.0261383056640625</v>
       </c>
       <c r="F120" t="n">
-        <v>5.710857391357422</v>
+        <v>0.000762939453125</v>
       </c>
       <c r="G120" t="n">
-        <v>1.784076690673828</v>
+        <v>0.0289306640625</v>
       </c>
       <c r="H120" t="n">
-        <v>245.0761260986328</v>
+        <v>3.218650817871094e-06</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Tc</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -5009,29 +5009,29 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.5978753566741943</v>
+        <v>0.0002955198287963867</v>
       </c>
       <c r="C121" t="n">
-        <v>7.78922694735229e-05</v>
+        <v>0.00128173828125</v>
       </c>
       <c r="D121" t="n">
-        <v>2.775099754333496</v>
+        <v>0.00347900390625</v>
       </c>
       <c r="E121" t="n">
-        <v>5.684051036834717</v>
+        <v>0.0500946044921875</v>
       </c>
       <c r="F121" t="n">
-        <v>18.80882263183594</v>
+        <v>0.0009765625</v>
       </c>
       <c r="G121" t="n">
-        <v>4.15155553817749</v>
+        <v>0.034759521484375</v>
       </c>
       <c r="H121" t="n">
-        <v>374.3365173339844</v>
+        <v>5.073845386505127e-06</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Qc</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
